--- a/data/trans_orig/IP07A18-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A18-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89AA60ED-79A4-4E31-A5EE-DFEAA56677E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD591C2A-0199-4855-87A2-E5AA338F3A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E1B49AB7-E98E-4F6F-A374-C5CC0DF9CAFF}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{86801372-382D-4744-BB06-C9AB651984D3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,27 +70,222 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
     <t>3,02%</t>
   </si>
   <si>
@@ -118,33 +313,6 @@
     <t>5,59%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
     <t>3,19%</t>
   </si>
   <si>
@@ -172,33 +340,6 @@
     <t>4,89%</t>
   </si>
   <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
     <t>3,88%</t>
   </si>
   <si>
@@ -226,145 +367,58 @@
     <t>4,61%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
   </si>
   <si>
     <t>3,29%</t>
@@ -394,33 +448,6 @@
     <t>5,57%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
     <t>3,39%</t>
   </si>
   <si>
@@ -439,33 +466,6 @@
     <t>3,72%</t>
   </si>
   <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
     <t>3,7%</t>
   </si>
   <si>
@@ -496,6 +496,189 @@
     <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2012 (Tasa respuesta: 44,74%)</t>
   </si>
   <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
     <t>7,41%</t>
   </si>
   <si>
@@ -523,33 +706,6 @@
     <t>9,98%</t>
   </si>
   <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
     <t>9,44%</t>
   </si>
   <si>
@@ -577,33 +733,6 @@
     <t>11,48%</t>
   </si>
   <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
     <t>6,36%</t>
   </si>
   <si>
@@ -622,133 +751,52 @@
     <t>8,71%</t>
   </si>
   <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
   </si>
   <si>
     <t>9,85%</t>
@@ -778,27 +826,6 @@
     <t>11,37%</t>
   </si>
   <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
     <t>6,57%</t>
   </si>
   <si>
@@ -823,33 +850,6 @@
     <t>11,57%</t>
   </si>
   <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
     <t>7,52%</t>
   </si>
   <si>
@@ -877,6 +877,177 @@
     <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2015 (Tasa respuesta: 47,08%)</t>
   </si>
   <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
     <t>5,81%</t>
   </si>
   <si>
@@ -898,30 +1069,6 @@
     <t>5,55%</t>
   </si>
   <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
     <t>5,3%</t>
   </si>
   <si>
@@ -946,33 +1093,6 @@
     <t>10,21%</t>
   </si>
   <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
     <t>4,34%</t>
   </si>
   <si>
@@ -991,124 +1111,52 @@
     <t>6,52%</t>
   </si>
   <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
   </si>
   <si>
     <t>9,13%</t>
@@ -1135,27 +1183,6 @@
     <t>10,01%</t>
   </si>
   <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
     <t>4,8%</t>
   </si>
   <si>
@@ -1169,33 +1196,6 @@
   </si>
   <si>
     <t>5,64%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
   </si>
   <si>
     <t>5,85%</t>
@@ -1602,7 +1602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F34066-2C54-48ED-99BC-5CC63F7D5469}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF093955-B7BB-454A-88DD-8A35B63D75EA}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1992,10 +1992,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="D10" s="7">
-        <v>8391</v>
+        <v>47882</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -2007,10 +2007,10 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I10" s="7">
-        <v>13143</v>
+        <v>38595</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>20</v>
@@ -2022,10 +2022,10 @@
         <v>22</v>
       </c>
       <c r="M10" s="7">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="N10" s="7">
-        <v>21534</v>
+        <v>86477</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>23</v>
@@ -2043,10 +2043,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D11" s="7">
-        <v>29671</v>
+        <v>10518</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>26</v>
@@ -2058,10 +2058,10 @@
         <v>28</v>
       </c>
       <c r="H11" s="7">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I11" s="7">
-        <v>35041</v>
+        <v>7953</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>29</v>
@@ -2073,10 +2073,10 @@
         <v>31</v>
       </c>
       <c r="M11" s="7">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="N11" s="7">
-        <v>64712</v>
+        <v>18471</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>32</v>
@@ -2094,10 +2094,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>8881</v>
+        <v>2947</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>35</v>
@@ -2109,10 +2109,10 @@
         <v>37</v>
       </c>
       <c r="H12" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I12" s="7">
-        <v>9597</v>
+        <v>3416</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>38</v>
@@ -2124,10 +2124,10 @@
         <v>40</v>
       </c>
       <c r="M12" s="7">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="N12" s="7">
-        <v>18478</v>
+        <v>6363</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>41</v>
@@ -2145,10 +2145,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>330</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>220449</v>
+        <v>2789</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>44</v>
@@ -2160,10 +2160,10 @@
         <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>294</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>199327</v>
+        <v>3399</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>47</v>
@@ -2175,10 +2175,10 @@
         <v>49</v>
       </c>
       <c r="M13" s="7">
-        <v>624</v>
+        <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>419776</v>
+        <v>6188</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -2196,10 +2196,10 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>10803</v>
+        <v>1930</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>53</v>
@@ -2211,10 +2211,10 @@
         <v>55</v>
       </c>
       <c r="H14" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>6315</v>
+        <v>1967</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>56</v>
@@ -2226,10 +2226,10 @@
         <v>58</v>
       </c>
       <c r="M14" s="7">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="N14" s="7">
-        <v>17119</v>
+        <v>3897</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>59</v>
@@ -2247,10 +2247,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>417</v>
+        <v>100</v>
       </c>
       <c r="D15" s="7">
-        <v>278196</v>
+        <v>66066</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>62</v>
@@ -2262,10 +2262,10 @@
         <v>62</v>
       </c>
       <c r="H15" s="7">
-        <v>391</v>
+        <v>82</v>
       </c>
       <c r="I15" s="7">
-        <v>263423</v>
+        <v>55329</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>62</v>
@@ -2277,10 +2277,10 @@
         <v>62</v>
       </c>
       <c r="M15" s="7">
-        <v>808</v>
+        <v>182</v>
       </c>
       <c r="N15" s="7">
-        <v>541619</v>
+        <v>121395</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>62</v>
@@ -2300,10 +2300,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>330</v>
       </c>
       <c r="D16" s="7">
-        <v>2947</v>
+        <v>220449</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>64</v>
@@ -2315,10 +2315,10 @@
         <v>66</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>294</v>
       </c>
       <c r="I16" s="7">
-        <v>3416</v>
+        <v>199327</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>67</v>
@@ -2330,10 +2330,10 @@
         <v>69</v>
       </c>
       <c r="M16" s="7">
-        <v>10</v>
+        <v>624</v>
       </c>
       <c r="N16" s="7">
-        <v>6363</v>
+        <v>419776</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>70</v>
@@ -2351,10 +2351,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D17" s="7">
-        <v>10518</v>
+        <v>29671</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>73</v>
@@ -2366,10 +2366,10 @@
         <v>75</v>
       </c>
       <c r="H17" s="7">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I17" s="7">
-        <v>7953</v>
+        <v>35041</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>76</v>
@@ -2381,10 +2381,10 @@
         <v>78</v>
       </c>
       <c r="M17" s="7">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="N17" s="7">
-        <v>18471</v>
+        <v>64712</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>79</v>
@@ -2402,10 +2402,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D18" s="7">
-        <v>2789</v>
+        <v>8391</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>82</v>
@@ -2417,10 +2417,10 @@
         <v>84</v>
       </c>
       <c r="H18" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I18" s="7">
-        <v>3399</v>
+        <v>13143</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>85</v>
@@ -2432,10 +2432,10 @@
         <v>87</v>
       </c>
       <c r="M18" s="7">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="N18" s="7">
-        <v>6188</v>
+        <v>21534</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>88</v>
@@ -2453,10 +2453,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="D19" s="7">
-        <v>47882</v>
+        <v>8881</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>91</v>
@@ -2468,10 +2468,10 @@
         <v>93</v>
       </c>
       <c r="H19" s="7">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="I19" s="7">
-        <v>38595</v>
+        <v>9597</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>94</v>
@@ -2483,10 +2483,10 @@
         <v>96</v>
       </c>
       <c r="M19" s="7">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="N19" s="7">
-        <v>86477</v>
+        <v>18478</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>97</v>
@@ -2504,10 +2504,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D20" s="7">
-        <v>1930</v>
+        <v>10803</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>100</v>
@@ -2519,10 +2519,10 @@
         <v>102</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I20" s="7">
-        <v>1967</v>
+        <v>6315</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>103</v>
@@ -2534,10 +2534,10 @@
         <v>105</v>
       </c>
       <c r="M20" s="7">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="N20" s="7">
-        <v>3897</v>
+        <v>17119</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>106</v>
@@ -2555,10 +2555,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>100</v>
+        <v>417</v>
       </c>
       <c r="D21" s="7">
-        <v>66066</v>
+        <v>278196</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>62</v>
@@ -2570,10 +2570,10 @@
         <v>62</v>
       </c>
       <c r="H21" s="7">
-        <v>82</v>
+        <v>391</v>
       </c>
       <c r="I21" s="7">
-        <v>55329</v>
+        <v>263423</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>62</v>
@@ -2585,10 +2585,10 @@
         <v>62</v>
       </c>
       <c r="M21" s="7">
-        <v>182</v>
+        <v>808</v>
       </c>
       <c r="N21" s="7">
-        <v>121395</v>
+        <v>541619</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>62</v>
@@ -2608,10 +2608,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>18</v>
+        <v>402</v>
       </c>
       <c r="D22" s="7">
-        <v>11337</v>
+        <v>268331</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>109</v>
@@ -2623,10 +2623,10 @@
         <v>111</v>
       </c>
       <c r="H22" s="7">
-        <v>25</v>
+        <v>351</v>
       </c>
       <c r="I22" s="7">
-        <v>16559</v>
+        <v>237921</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>112</v>
@@ -2638,10 +2638,10 @@
         <v>114</v>
       </c>
       <c r="M22" s="7">
-        <v>43</v>
+        <v>753</v>
       </c>
       <c r="N22" s="7">
-        <v>27897</v>
+        <v>506252</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>115</v>
@@ -2710,49 +2710,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D24" s="7">
-        <v>11670</v>
+        <v>11337</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>127</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H24" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I24" s="7">
-        <v>12996</v>
+        <v>16559</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M24" s="7">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N24" s="7">
-        <v>24666</v>
+        <v>27897</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2761,49 +2761,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>402</v>
+        <v>17</v>
       </c>
       <c r="D25" s="7">
-        <v>268331</v>
+        <v>11670</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H25" s="7">
-        <v>351</v>
+        <v>20</v>
       </c>
       <c r="I25" s="7">
-        <v>237921</v>
+        <v>12996</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M25" s="7">
-        <v>753</v>
+        <v>37</v>
       </c>
       <c r="N25" s="7">
-        <v>506252</v>
+        <v>24666</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>141</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,7 +2924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5AF45F-5883-43E0-A5CF-21BAD72710CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD6826D-1145-43CF-9CB6-5D137D7E726B}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3314,10 +3314,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D10" s="7">
-        <v>19644</v>
+        <v>29623</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>152</v>
@@ -3329,10 +3329,10 @@
         <v>154</v>
       </c>
       <c r="H10" s="7">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="I10" s="7">
-        <v>20870</v>
+        <v>41172</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>155</v>
@@ -3344,10 +3344,10 @@
         <v>157</v>
       </c>
       <c r="M10" s="7">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="N10" s="7">
-        <v>40514</v>
+        <v>70794</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>158</v>
@@ -3365,10 +3365,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D11" s="7">
-        <v>25296</v>
+        <v>10594</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>161</v>
@@ -3380,10 +3380,10 @@
         <v>163</v>
       </c>
       <c r="H11" s="7">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I11" s="7">
-        <v>28166</v>
+        <v>9952</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>164</v>
@@ -3395,10 +3395,10 @@
         <v>166</v>
       </c>
       <c r="M11" s="7">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="N11" s="7">
-        <v>53462</v>
+        <v>20546</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>167</v>
@@ -3416,10 +3416,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D12" s="7">
-        <v>25024</v>
+        <v>12989</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>170</v>
@@ -3431,34 +3431,34 @@
         <v>172</v>
       </c>
       <c r="H12" s="7">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>22481</v>
+        <v>5528</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>173</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>26</v>
+      </c>
+      <c r="N12" s="7">
+        <v>18518</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="M12" s="7">
-        <v>70</v>
-      </c>
-      <c r="N12" s="7">
-        <v>47506</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,49 +3467,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>259</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>178240</v>
+        <v>4926</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>13</v>
+      </c>
+      <c r="I13" s="7">
+        <v>9282</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H13" s="7">
-        <v>230</v>
-      </c>
-      <c r="I13" s="7">
-        <v>161378</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>20</v>
+      </c>
+      <c r="N13" s="7">
+        <v>14208</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="M13" s="7">
-        <v>489</v>
-      </c>
-      <c r="N13" s="7">
-        <v>339619</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,49 +3518,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D14" s="7">
-        <v>16862</v>
+        <v>8041</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="G14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H14" s="7">
+        <v>8</v>
+      </c>
+      <c r="I14" s="7">
+        <v>6035</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H14" s="7">
-        <v>25</v>
-      </c>
-      <c r="I14" s="7">
-        <v>17054</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="M14" s="7">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="N14" s="7">
-        <v>33916</v>
+        <v>14076</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,10 +3569,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>390</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>265067</v>
+        <v>66174</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>62</v>
@@ -3584,10 +3584,10 @@
         <v>62</v>
       </c>
       <c r="H15" s="7">
-        <v>356</v>
+        <v>101</v>
       </c>
       <c r="I15" s="7">
-        <v>249950</v>
+        <v>71969</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>62</v>
@@ -3599,10 +3599,10 @@
         <v>62</v>
       </c>
       <c r="M15" s="7">
-        <v>746</v>
+        <v>193</v>
       </c>
       <c r="N15" s="7">
-        <v>515017</v>
+        <v>138143</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>62</v>
@@ -3622,49 +3622,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>18</v>
+        <v>259</v>
       </c>
       <c r="D16" s="7">
-        <v>12989</v>
+        <v>178240</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
-        <v>8</v>
+        <v>230</v>
       </c>
       <c r="I16" s="7">
-        <v>5528</v>
+        <v>161378</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>103</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
-        <v>26</v>
+        <v>489</v>
       </c>
       <c r="N16" s="7">
-        <v>18518</v>
+        <v>339619</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,49 +3673,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D17" s="7">
-        <v>10594</v>
+        <v>25296</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I17" s="7">
-        <v>9952</v>
+        <v>28166</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="N17" s="7">
-        <v>20546</v>
+        <v>53462</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,49 +3724,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D18" s="7">
-        <v>4926</v>
+        <v>19644</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H18" s="7">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I18" s="7">
-        <v>9282</v>
+        <v>20870</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M18" s="7">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="N18" s="7">
-        <v>14208</v>
+        <v>40514</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,49 +3775,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D19" s="7">
-        <v>29623</v>
+        <v>25024</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H19" s="7">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I19" s="7">
-        <v>41172</v>
+        <v>22481</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M19" s="7">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="N19" s="7">
-        <v>70794</v>
+        <v>47506</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,40 +3826,40 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D20" s="7">
-        <v>8041</v>
+        <v>16862</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>230</v>
+        <v>147</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="H20" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I20" s="7">
-        <v>6035</v>
+        <v>17054</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>232</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>202</v>
-      </c>
       <c r="M20" s="7">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="N20" s="7">
-        <v>14076</v>
+        <v>33916</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>234</v>
@@ -3877,10 +3877,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>92</v>
+        <v>390</v>
       </c>
       <c r="D21" s="7">
-        <v>66174</v>
+        <v>265067</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>62</v>
@@ -3892,10 +3892,10 @@
         <v>62</v>
       </c>
       <c r="H21" s="7">
-        <v>101</v>
+        <v>356</v>
       </c>
       <c r="I21" s="7">
-        <v>71969</v>
+        <v>249950</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>62</v>
@@ -3907,10 +3907,10 @@
         <v>62</v>
       </c>
       <c r="M21" s="7">
-        <v>193</v>
+        <v>746</v>
       </c>
       <c r="N21" s="7">
-        <v>138143</v>
+        <v>515017</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>62</v>
@@ -3930,10 +3930,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>48</v>
+        <v>300</v>
       </c>
       <c r="D22" s="7">
-        <v>32633</v>
+        <v>207863</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>237</v>
@@ -3945,10 +3945,10 @@
         <v>239</v>
       </c>
       <c r="H22" s="7">
-        <v>37</v>
+        <v>288</v>
       </c>
       <c r="I22" s="7">
-        <v>26398</v>
+        <v>202550</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>240</v>
@@ -3960,10 +3960,10 @@
         <v>242</v>
       </c>
       <c r="M22" s="7">
-        <v>85</v>
+        <v>588</v>
       </c>
       <c r="N22" s="7">
-        <v>59032</v>
+        <v>410413</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>243</v>
@@ -3990,7 +3990,7 @@
         <v>246</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>155</v>
+        <v>216</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>247</v>
@@ -4005,7 +4005,7 @@
         <v>248</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>249</v>
@@ -4032,49 +4032,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D24" s="7">
-        <v>29951</v>
+        <v>32633</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H24" s="7">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I24" s="7">
-        <v>31763</v>
+        <v>26398</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M24" s="7">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N24" s="7">
-        <v>61714</v>
+        <v>59032</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,13 +4083,13 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="D25" s="7">
-        <v>207863</v>
+        <v>29951</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>262</v>
@@ -4098,10 +4098,10 @@
         <v>263</v>
       </c>
       <c r="H25" s="7">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="I25" s="7">
-        <v>202550</v>
+        <v>31763</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>264</v>
@@ -4113,10 +4113,10 @@
         <v>266</v>
       </c>
       <c r="M25" s="7">
-        <v>588</v>
+        <v>90</v>
       </c>
       <c r="N25" s="7">
-        <v>410413</v>
+        <v>61714</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>267</v>
@@ -4146,7 +4146,7 @@
         <v>271</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="H26" s="7">
         <v>33</v>
@@ -4246,7 +4246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE6D78E-6159-42EA-9C73-63D10F39067C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C4E181-42F7-44D0-830A-0C203158956C}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4636,49 +4636,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="D10" s="7">
-        <v>23354</v>
+        <v>53040</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>279</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H10" s="7">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="I10" s="7">
-        <v>16804</v>
+        <v>64539</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M10" s="7">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="N10" s="7">
-        <v>40158</v>
+        <v>117579</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4687,49 +4687,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D11" s="7">
-        <v>31137</v>
+        <v>10242</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H11" s="7">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="I11" s="7">
-        <v>32524</v>
+        <v>7365</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M11" s="7">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="N11" s="7">
-        <v>63660</v>
+        <v>17607</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>292</v>
+        <v>168</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>247</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,49 +4738,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7">
-        <v>21469</v>
+        <v>9388</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>197</v>
+        <v>295</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H12" s="7">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I12" s="7">
-        <v>21019</v>
+        <v>8499</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M12" s="7">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="N12" s="7">
-        <v>42488</v>
+        <v>17887</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>300</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,40 +4789,40 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>185833</v>
+        <v>3279</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H13" s="7">
-        <v>261</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>186534</v>
+        <v>5109</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>307</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>511</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>372367</v>
+        <v>8388</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>308</v>
@@ -4840,13 +4840,13 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>17906</v>
+        <v>3069</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>311</v>
@@ -4855,34 +4855,34 @@
         <v>312</v>
       </c>
       <c r="H14" s="7">
+        <v>7</v>
+      </c>
+      <c r="I14" s="7">
+        <v>5202</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="M14" s="7">
         <v>12</v>
       </c>
-      <c r="I14" s="7">
-        <v>8379</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="M14" s="7">
-        <v>36</v>
-      </c>
       <c r="N14" s="7">
-        <v>26285</v>
+        <v>8271</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>41</v>
+        <v>317</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,10 +4891,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>378</v>
+        <v>114</v>
       </c>
       <c r="D15" s="7">
-        <v>279700</v>
+        <v>79019</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>62</v>
@@ -4906,10 +4906,10 @@
         <v>62</v>
       </c>
       <c r="H15" s="7">
-        <v>372</v>
+        <v>137</v>
       </c>
       <c r="I15" s="7">
-        <v>265259</v>
+        <v>90714</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>62</v>
@@ -4921,10 +4921,10 @@
         <v>62</v>
       </c>
       <c r="M15" s="7">
-        <v>750</v>
+        <v>251</v>
       </c>
       <c r="N15" s="7">
-        <v>544958</v>
+        <v>169733</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>62</v>
@@ -4944,49 +4944,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>13</v>
+        <v>250</v>
       </c>
       <c r="D16" s="7">
-        <v>9388</v>
+        <v>185833</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H16" s="7">
-        <v>13</v>
+        <v>261</v>
       </c>
       <c r="I16" s="7">
-        <v>8499</v>
+        <v>186534</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M16" s="7">
-        <v>26</v>
+        <v>511</v>
       </c>
       <c r="N16" s="7">
-        <v>17887</v>
+        <v>372367</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>22</v>
+        <v>326</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,49 +4995,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D17" s="7">
-        <v>10242</v>
+        <v>31137</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H17" s="7">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="I17" s="7">
-        <v>7365</v>
+        <v>32524</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M17" s="7">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="N17" s="7">
-        <v>17607</v>
+        <v>63660</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>209</v>
+        <v>334</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>126</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,49 +5046,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D18" s="7">
-        <v>3279</v>
+        <v>23354</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>332</v>
+        <v>216</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H18" s="7">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I18" s="7">
-        <v>5109</v>
+        <v>16804</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>340</v>
       </c>
       <c r="M18" s="7">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="N18" s="7">
-        <v>8388</v>
+        <v>40158</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>339</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,49 +5097,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="D19" s="7">
-        <v>53040</v>
+        <v>21469</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>340</v>
+        <v>173</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H19" s="7">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="I19" s="7">
-        <v>64539</v>
+        <v>21019</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M19" s="7">
-        <v>174</v>
+        <v>59</v>
       </c>
       <c r="N19" s="7">
-        <v>117579</v>
+        <v>42488</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,46 +5148,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D20" s="7">
-        <v>3069</v>
+        <v>17906</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H20" s="7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I20" s="7">
-        <v>5202</v>
+        <v>8379</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>351</v>
+        <v>106</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M20" s="7">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="N20" s="7">
-        <v>8271</v>
+        <v>26285</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>355</v>
+        <v>97</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>356</v>
@@ -5199,10 +5199,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>114</v>
+        <v>378</v>
       </c>
       <c r="D21" s="7">
-        <v>79019</v>
+        <v>279700</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>62</v>
@@ -5214,10 +5214,10 @@
         <v>62</v>
       </c>
       <c r="H21" s="7">
-        <v>137</v>
+        <v>372</v>
       </c>
       <c r="I21" s="7">
-        <v>90714</v>
+        <v>265259</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>62</v>
@@ -5229,10 +5229,10 @@
         <v>62</v>
       </c>
       <c r="M21" s="7">
-        <v>251</v>
+        <v>750</v>
       </c>
       <c r="N21" s="7">
-        <v>169733</v>
+        <v>544958</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>62</v>
@@ -5252,10 +5252,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="D22" s="7">
-        <v>32743</v>
+        <v>238874</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>357</v>
@@ -5267,10 +5267,10 @@
         <v>359</v>
       </c>
       <c r="H22" s="7">
-        <v>37</v>
+        <v>359</v>
       </c>
       <c r="I22" s="7">
-        <v>25302</v>
+        <v>251072</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>360</v>
@@ -5282,19 +5282,19 @@
         <v>362</v>
       </c>
       <c r="M22" s="7">
-        <v>82</v>
+        <v>685</v>
       </c>
       <c r="N22" s="7">
-        <v>58045</v>
+        <v>489946</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,13 +5309,13 @@
         <v>41379</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>218</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H23" s="7">
         <v>56</v>
@@ -5324,13 +5324,13 @@
         <v>39889</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M23" s="7">
         <v>114</v>
@@ -5339,13 +5339,13 @@
         <v>81267</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,49 +5354,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D24" s="7">
-        <v>24748</v>
+        <v>32743</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>162</v>
+        <v>373</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H24" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I24" s="7">
-        <v>26128</v>
+        <v>25302</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>70</v>
+        <v>377</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M24" s="7">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="N24" s="7">
-        <v>50876</v>
+        <v>58045</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>193</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,49 +5405,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>326</v>
+        <v>34</v>
       </c>
       <c r="D25" s="7">
-        <v>238874</v>
+        <v>24748</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>377</v>
+        <v>205</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H25" s="7">
-        <v>359</v>
+        <v>38</v>
       </c>
       <c r="I25" s="7">
-        <v>251072</v>
+        <v>26128</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>381</v>
+        <v>41</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M25" s="7">
-        <v>685</v>
+        <v>72</v>
       </c>
       <c r="N25" s="7">
-        <v>489946</v>
+        <v>50876</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>383</v>
+        <v>296</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>385</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,10 +5465,10 @@
         <v>386</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -5480,7 +5480,7 @@
         <v>387</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>388</v>
@@ -5495,7 +5495,7 @@
         <v>389</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>390</v>

--- a/data/trans_orig/IP07A18-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A18-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD591C2A-0199-4855-87A2-E5AA338F3A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C9708BC-4CC4-4637-8326-6847791A399E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{86801372-382D-4744-BB06-C9AB651984D3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E6E5C7C9-9D1B-4651-B089-705B0735A07B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="393">
   <si>
     <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2007 (Tasa respuesta: 47,05%)</t>
   </si>
@@ -67,1150 +67,1156 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2012 (Tasa respuesta: 44,74%)</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
   </si>
   <si>
     <t>9,68%</t>
   </si>
   <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
   </si>
   <si>
     <t>6,47%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2015 (Tasa respuesta: 47,08%)</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2012 (Tasa respuesta: 44,74%)</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
   </si>
   <si>
     <t>6,9%</t>
   </si>
   <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
   </si>
   <si>
     <t>11,54%</t>
   </si>
   <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
   </si>
   <si>
     <t>11,37%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2015 (Tasa respuesta: 47,08%)</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
     <t>66,59%</t>
   </si>
   <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
   </si>
   <si>
     <t>70,53%</t>
   </si>
   <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
   </si>
   <si>
     <t>68,55%</t>
   </si>
   <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1227,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1317,39 +1323,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1401,7 +1407,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1512,13 +1518,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1527,6 +1526,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1591,19 +1597,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF093955-B7BB-454A-88DD-8A35B63D75EA}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5C3764-3C2C-4474-BFFD-CE228DC6A928}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1992,49 +2018,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>72</v>
-      </c>
-      <c r="D10" s="7">
-        <v>47882</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>57</v>
-      </c>
-      <c r="I10" s="7">
-        <v>38595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>129</v>
-      </c>
-      <c r="N10" s="7">
-        <v>86477</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,49 +2063,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>16</v>
-      </c>
-      <c r="D11" s="7">
-        <v>10518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>12</v>
-      </c>
-      <c r="I11" s="7">
-        <v>7953</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>28</v>
-      </c>
-      <c r="N11" s="7">
-        <v>18471</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2094,49 +2108,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2947</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
-      </c>
-      <c r="I12" s="7">
-        <v>3416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>10</v>
-      </c>
-      <c r="N12" s="7">
-        <v>6363</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2145,49 +2153,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
-      </c>
-      <c r="D13" s="7">
-        <v>2789</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>9</v>
-      </c>
-      <c r="N13" s="7">
-        <v>6188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,49 +2198,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1930</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1967</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>6</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3897</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,102 +2243,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>100</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>82</v>
-      </c>
-      <c r="I15" s="7">
-        <v>55329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>182</v>
-      </c>
-      <c r="N15" s="7">
-        <v>121395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>330</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>220449</v>
+        <v>5639</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>294</v>
+        <v>9</v>
       </c>
       <c r="I16" s="7">
-        <v>199327</v>
+        <v>5664</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>624</v>
+        <v>17</v>
       </c>
       <c r="N16" s="7">
-        <v>419776</v>
+        <v>11303</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,49 +2341,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>29671</v>
+        <v>4874</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="I17" s="7">
-        <v>35041</v>
+        <v>6862</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="N17" s="7">
-        <v>64712</v>
+        <v>11737</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,49 +2392,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>8391</v>
+        <v>5982</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I18" s="7">
-        <v>13143</v>
+        <v>9533</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N18" s="7">
-        <v>21534</v>
+        <v>15516</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,49 +2443,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D19" s="7">
-        <v>8881</v>
+        <v>22061</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I19" s="7">
-        <v>9597</v>
+        <v>16974</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="N19" s="7">
-        <v>18478</v>
+        <v>39034</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,49 +2494,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="D20" s="7">
-        <v>10803</v>
+        <v>101633</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="H20" s="7">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I20" s="7">
-        <v>6315</v>
+        <v>86415</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="M20" s="7">
-        <v>26</v>
+        <v>280</v>
       </c>
       <c r="N20" s="7">
-        <v>17119</v>
+        <v>188048</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,102 +2545,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>417</v>
+        <v>210</v>
       </c>
       <c r="D21" s="7">
-        <v>278196</v>
+        <v>140190</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>391</v>
+        <v>188</v>
       </c>
       <c r="I21" s="7">
-        <v>263423</v>
+        <v>125448</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>808</v>
+        <v>398</v>
       </c>
       <c r="N21" s="7">
-        <v>541619</v>
+        <v>265638</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>402</v>
+        <v>11</v>
       </c>
       <c r="D22" s="7">
-        <v>268331</v>
+        <v>7095</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="H22" s="7">
-        <v>351</v>
+        <v>4</v>
       </c>
       <c r="I22" s="7">
-        <v>237921</v>
+        <v>2618</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="M22" s="7">
-        <v>753</v>
+        <v>15</v>
       </c>
       <c r="N22" s="7">
-        <v>506252</v>
+        <v>9713</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,49 +2649,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D23" s="7">
-        <v>40189</v>
+        <v>6796</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="H23" s="7">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="I23" s="7">
-        <v>42993</v>
+        <v>6134</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="M23" s="7">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="N23" s="7">
-        <v>83183</v>
+        <v>12930</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,49 +2700,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D24" s="7">
-        <v>11337</v>
+        <v>5355</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="H24" s="7">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I24" s="7">
-        <v>16559</v>
+        <v>7026</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="M24" s="7">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="N24" s="7">
-        <v>27897</v>
+        <v>12381</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2761,49 +2751,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D25" s="7">
-        <v>11670</v>
+        <v>18129</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="7">
+        <v>38</v>
+      </c>
+      <c r="I25" s="7">
+        <v>26020</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H25" s="7">
-        <v>20</v>
-      </c>
-      <c r="I25" s="7">
-        <v>12996</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="M25" s="7">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="N25" s="7">
-        <v>24666</v>
+        <v>44148</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2812,49 +2802,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="D26" s="7">
-        <v>12734</v>
+        <v>166698</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="H26" s="7">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="I26" s="7">
-        <v>8282</v>
+        <v>151506</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="M26" s="7">
-        <v>32</v>
+        <v>473</v>
       </c>
       <c r="N26" s="7">
-        <v>21016</v>
+        <v>318204</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2863,55 +2853,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>307</v>
+      </c>
+      <c r="D27" s="7">
+        <v>204072</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>285</v>
+      </c>
+      <c r="I27" s="7">
+        <v>193304</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>592</v>
+      </c>
+      <c r="N27" s="7">
+        <v>397376</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>19</v>
+      </c>
+      <c r="D28" s="7">
+        <v>12734</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" s="7">
+        <v>13</v>
+      </c>
+      <c r="I28" s="7">
+        <v>8282</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M28" s="7">
+        <v>32</v>
+      </c>
+      <c r="N28" s="7">
+        <v>21016</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>17</v>
+      </c>
+      <c r="D29" s="7">
+        <v>11670</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" s="7">
+        <v>20</v>
+      </c>
+      <c r="I29" s="7">
+        <v>12996</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M29" s="7">
+        <v>37</v>
+      </c>
+      <c r="N29" s="7">
+        <v>24666</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>18</v>
+      </c>
+      <c r="D30" s="7">
+        <v>11337</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H30" s="7">
+        <v>25</v>
+      </c>
+      <c r="I30" s="7">
+        <v>16559</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M30" s="7">
+        <v>43</v>
+      </c>
+      <c r="N30" s="7">
+        <v>27897</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>61</v>
+      </c>
+      <c r="D31" s="7">
+        <v>40189</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H31" s="7">
+        <v>64</v>
+      </c>
+      <c r="I31" s="7">
+        <v>42993</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M31" s="7">
+        <v>125</v>
+      </c>
+      <c r="N31" s="7">
+        <v>83183</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>402</v>
+      </c>
+      <c r="D32" s="7">
+        <v>268331</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32" s="7">
+        <v>351</v>
+      </c>
+      <c r="I32" s="7">
+        <v>237921</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M32" s="7">
+        <v>753</v>
+      </c>
+      <c r="N32" s="7">
+        <v>506252</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>517</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>344262</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>473</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>318752</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>990</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>663014</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>62</v>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2924,8 +3228,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD6826D-1145-43CF-9CB6-5D137D7E726B}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928BB195-BE0D-4BB8-AA39-43C6F55F8727}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2941,7 +3245,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3314,49 +3618,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>41</v>
-      </c>
-      <c r="D10" s="7">
-        <v>29623</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>58</v>
-      </c>
-      <c r="I10" s="7">
-        <v>41172</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>99</v>
-      </c>
-      <c r="N10" s="7">
-        <v>70794</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,49 +3663,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>15</v>
-      </c>
-      <c r="D11" s="7">
-        <v>10594</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>14</v>
-      </c>
-      <c r="I11" s="7">
-        <v>9952</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>29</v>
-      </c>
-      <c r="N11" s="7">
-        <v>20546</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,49 +3708,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>18</v>
-      </c>
-      <c r="D12" s="7">
-        <v>12989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>8</v>
-      </c>
-      <c r="I12" s="7">
-        <v>5528</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>26</v>
-      </c>
-      <c r="N12" s="7">
-        <v>18518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,49 +3753,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
-      </c>
-      <c r="D13" s="7">
-        <v>4926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>13</v>
-      </c>
-      <c r="I13" s="7">
-        <v>9282</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>20</v>
-      </c>
-      <c r="N13" s="7">
-        <v>14208</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,49 +3798,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>11</v>
-      </c>
-      <c r="D14" s="7">
-        <v>8041</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>8</v>
-      </c>
-      <c r="I14" s="7">
-        <v>6035</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>19</v>
-      </c>
-      <c r="N14" s="7">
-        <v>14076</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,102 +3843,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>101</v>
-      </c>
-      <c r="I15" s="7">
-        <v>71969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>193</v>
-      </c>
-      <c r="N15" s="7">
-        <v>138143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>259</v>
+        <v>25</v>
       </c>
       <c r="D16" s="7">
-        <v>178240</v>
+        <v>17742</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="H16" s="7">
-        <v>230</v>
+        <v>20</v>
       </c>
       <c r="I16" s="7">
-        <v>161378</v>
+        <v>13910</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="M16" s="7">
-        <v>489</v>
+        <v>45</v>
       </c>
       <c r="N16" s="7">
-        <v>339619</v>
+        <v>31652</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,49 +3941,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D17" s="7">
-        <v>25296</v>
+        <v>12883</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="H17" s="7">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I17" s="7">
-        <v>28166</v>
+        <v>14737</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="M17" s="7">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="N17" s="7">
-        <v>53462</v>
+        <v>27620</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,49 +3992,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D18" s="7">
-        <v>19644</v>
+        <v>22136</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="H18" s="7">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I18" s="7">
-        <v>20870</v>
+        <v>14835</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="M18" s="7">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N18" s="7">
-        <v>40514</v>
+        <v>36971</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,49 +4043,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D19" s="7">
-        <v>25024</v>
+        <v>21002</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="H19" s="7">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I19" s="7">
-        <v>22481</v>
+        <v>16714</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="M19" s="7">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="N19" s="7">
-        <v>47506</v>
+        <v>37716</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,49 +4094,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="D20" s="7">
-        <v>16862</v>
+        <v>82910</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="H20" s="7">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="I20" s="7">
-        <v>17054</v>
+        <v>95318</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>105</v>
+        <v>193</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="M20" s="7">
-        <v>50</v>
+        <v>254</v>
       </c>
       <c r="N20" s="7">
-        <v>33916</v>
+        <v>178229</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,102 +4145,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>390</v>
+        <v>225</v>
       </c>
       <c r="D21" s="7">
-        <v>265067</v>
+        <v>156674</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>356</v>
+        <v>221</v>
       </c>
       <c r="I21" s="7">
-        <v>249950</v>
+        <v>155514</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>746</v>
+        <v>446</v>
       </c>
       <c r="N21" s="7">
-        <v>515017</v>
+        <v>312189</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="D22" s="7">
-        <v>207863</v>
+        <v>7161</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="H22" s="7">
-        <v>288</v>
+        <v>13</v>
       </c>
       <c r="I22" s="7">
-        <v>202550</v>
+        <v>9179</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="M22" s="7">
-        <v>588</v>
+        <v>24</v>
       </c>
       <c r="N22" s="7">
-        <v>410413</v>
+        <v>16340</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,49 +4249,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D23" s="7">
-        <v>35890</v>
+        <v>17067</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="H23" s="7">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="I23" s="7">
-        <v>38118</v>
+        <v>17026</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="M23" s="7">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="N23" s="7">
-        <v>74009</v>
+        <v>34094</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,49 +4300,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D24" s="7">
-        <v>32633</v>
+        <v>10497</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>254</v>
+        <v>27</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="H24" s="7">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I24" s="7">
-        <v>26398</v>
+        <v>11564</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="M24" s="7">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="N24" s="7">
-        <v>59032</v>
+        <v>22061</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,49 +4351,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D25" s="7">
-        <v>29951</v>
+        <v>14888</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="H25" s="7">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I25" s="7">
-        <v>31763</v>
+        <v>21404</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="M25" s="7">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="N25" s="7">
-        <v>61714</v>
+        <v>36292</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,49 +4402,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>36</v>
+        <v>181</v>
       </c>
       <c r="D26" s="7">
-        <v>24904</v>
+        <v>124953</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>58</v>
+        <v>232</v>
       </c>
       <c r="H26" s="7">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="I26" s="7">
-        <v>23089</v>
+        <v>107231</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="M26" s="7">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="N26" s="7">
-        <v>47992</v>
+        <v>232184</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,55 +4453,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>257</v>
+      </c>
+      <c r="D27" s="7">
+        <v>174567</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>236</v>
+      </c>
+      <c r="I27" s="7">
+        <v>166404</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>493</v>
+      </c>
+      <c r="N27" s="7">
+        <v>340971</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>36</v>
+      </c>
+      <c r="D28" s="7">
+        <v>24904</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H28" s="7">
+        <v>33</v>
+      </c>
+      <c r="I28" s="7">
+        <v>23089</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M28" s="7">
+        <v>69</v>
+      </c>
+      <c r="N28" s="7">
+        <v>47992</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>45</v>
+      </c>
+      <c r="D29" s="7">
+        <v>29951</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H29" s="7">
+        <v>45</v>
+      </c>
+      <c r="I29" s="7">
+        <v>31763</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M29" s="7">
+        <v>90</v>
+      </c>
+      <c r="N29" s="7">
+        <v>61714</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>48</v>
+      </c>
+      <c r="D30" s="7">
+        <v>32633</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H30" s="7">
+        <v>37</v>
+      </c>
+      <c r="I30" s="7">
+        <v>26398</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="M30" s="7">
+        <v>85</v>
+      </c>
+      <c r="N30" s="7">
+        <v>59032</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>53</v>
+      </c>
+      <c r="D31" s="7">
+        <v>35890</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H31" s="7">
+        <v>54</v>
+      </c>
+      <c r="I31" s="7">
+        <v>38118</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="M31" s="7">
+        <v>107</v>
+      </c>
+      <c r="N31" s="7">
+        <v>74009</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>300</v>
+      </c>
+      <c r="D32" s="7">
+        <v>207863</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H32" s="7">
+        <v>288</v>
+      </c>
+      <c r="I32" s="7">
+        <v>202550</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="M32" s="7">
+        <v>588</v>
+      </c>
+      <c r="N32" s="7">
+        <v>410413</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>482</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>331241</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>457</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>321919</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>939</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>653160</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>62</v>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4246,8 +4828,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C4E181-42F7-44D0-830A-0C203158956C}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F907EFB9-B672-47C7-B65A-50274C5BD4B2}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4263,7 +4845,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4636,49 +5218,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>76</v>
-      </c>
-      <c r="D10" s="7">
-        <v>53040</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>98</v>
-      </c>
-      <c r="I10" s="7">
-        <v>64539</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>174</v>
-      </c>
-      <c r="N10" s="7">
-        <v>117579</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4687,49 +5263,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>15</v>
-      </c>
-      <c r="D11" s="7">
-        <v>10242</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>289</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>11</v>
-      </c>
-      <c r="I11" s="7">
-        <v>7365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>291</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>26</v>
-      </c>
-      <c r="N11" s="7">
-        <v>17607</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>294</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,49 +5308,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>13</v>
-      </c>
-      <c r="D12" s="7">
-        <v>9388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>295</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>296</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>297</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>13</v>
-      </c>
-      <c r="I12" s="7">
-        <v>8499</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>298</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>26</v>
-      </c>
-      <c r="N12" s="7">
-        <v>17887</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>301</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>302</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,49 +5353,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
-      </c>
-      <c r="D13" s="7">
-        <v>3279</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>303</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>305</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>8</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>306</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>307</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>13</v>
-      </c>
-      <c r="N13" s="7">
-        <v>8388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>308</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>309</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>310</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,49 +5398,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
-      </c>
-      <c r="D14" s="7">
-        <v>3069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>311</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>312</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>7</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5202</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>313</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>314</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>315</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>12</v>
-      </c>
-      <c r="N14" s="7">
-        <v>8271</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>316</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>317</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>318</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,102 +5443,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>114</v>
-      </c>
-      <c r="D15" s="7">
-        <v>79019</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>137</v>
-      </c>
-      <c r="I15" s="7">
-        <v>90714</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>251</v>
-      </c>
-      <c r="N15" s="7">
-        <v>169733</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>250</v>
+        <v>18</v>
       </c>
       <c r="D16" s="7">
-        <v>185833</v>
+        <v>12251</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="H16" s="7">
-        <v>261</v>
+        <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>186534</v>
+        <v>5859</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="M16" s="7">
-        <v>511</v>
+        <v>26</v>
       </c>
       <c r="N16" s="7">
-        <v>372367</v>
+        <v>18110</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,49 +5541,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D17" s="7">
-        <v>31137</v>
+        <v>10579</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>328</v>
+        <v>287</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>329</v>
+        <v>288</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="H17" s="7">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="I17" s="7">
-        <v>32524</v>
+        <v>12883</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>332</v>
+        <v>114</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="M17" s="7">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="N17" s="7">
-        <v>63660</v>
+        <v>23462</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,49 +5592,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D18" s="7">
-        <v>23354</v>
+        <v>20522</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>216</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>336</v>
+        <v>295</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>337</v>
+        <v>296</v>
       </c>
       <c r="H18" s="7">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I18" s="7">
-        <v>16804</v>
+        <v>13359</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>339</v>
+        <v>298</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="M18" s="7">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="N18" s="7">
-        <v>40158</v>
+        <v>33880</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,49 +5643,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D19" s="7">
-        <v>21469</v>
+        <v>22179</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>173</v>
+        <v>303</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="H19" s="7">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I19" s="7">
-        <v>21019</v>
+        <v>18940</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>345</v>
+        <v>210</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="M19" s="7">
         <v>59</v>
       </c>
       <c r="N19" s="7">
-        <v>42488</v>
+        <v>41120</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,49 +5694,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="D20" s="7">
-        <v>17906</v>
+        <v>119728</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>311</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="H20" s="7">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="I20" s="7">
-        <v>8379</v>
+        <v>134142</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>106</v>
+        <v>314</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="M20" s="7">
-        <v>36</v>
+        <v>357</v>
       </c>
       <c r="N20" s="7">
-        <v>26285</v>
+        <v>253870</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>97</v>
+        <v>318</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,102 +5745,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>378</v>
+        <v>258</v>
       </c>
       <c r="D21" s="7">
-        <v>279700</v>
+        <v>185259</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>372</v>
+        <v>266</v>
       </c>
       <c r="I21" s="7">
-        <v>265259</v>
+        <v>185183</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>750</v>
+        <v>524</v>
       </c>
       <c r="N21" s="7">
-        <v>544958</v>
+        <v>370442</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>326</v>
+        <v>11</v>
       </c>
       <c r="D22" s="7">
-        <v>238874</v>
+        <v>8725</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>357</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="H22" s="7">
-        <v>359</v>
+        <v>11</v>
       </c>
       <c r="I22" s="7">
-        <v>251072</v>
+        <v>7721</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>360</v>
+        <v>21</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="M22" s="7">
-        <v>685</v>
+        <v>22</v>
       </c>
       <c r="N22" s="7">
-        <v>489946</v>
+        <v>16447</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>365</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,49 +5849,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D23" s="7">
-        <v>41379</v>
+        <v>14169</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>218</v>
+        <v>326</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="H23" s="7">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="I23" s="7">
-        <v>39889</v>
+        <v>13245</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="M23" s="7">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="N23" s="7">
-        <v>81267</v>
+        <v>27415</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>332</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>372</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,49 +5900,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D24" s="7">
-        <v>32743</v>
+        <v>12221</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>373</v>
+        <v>200</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>375</v>
+        <v>335</v>
       </c>
       <c r="H24" s="7">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I24" s="7">
-        <v>25302</v>
+        <v>11944</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>376</v>
+        <v>336</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>377</v>
+        <v>218</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>378</v>
+        <v>337</v>
       </c>
       <c r="M24" s="7">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="N24" s="7">
-        <v>58045</v>
+        <v>24165</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,49 +5951,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D25" s="7">
-        <v>24748</v>
+        <v>19199</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>205</v>
+        <v>341</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>381</v>
+        <v>297</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>382</v>
+        <v>296</v>
       </c>
       <c r="H25" s="7">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I25" s="7">
-        <v>26128</v>
+        <v>20948</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>383</v>
+        <v>342</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>384</v>
+        <v>343</v>
       </c>
       <c r="M25" s="7">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="N25" s="7">
-        <v>50876</v>
+        <v>40148</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>236</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,49 +6002,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="D26" s="7">
-        <v>20976</v>
+        <v>119145</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>100</v>
+        <v>348</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>165</v>
+        <v>349</v>
       </c>
       <c r="H26" s="7">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="I26" s="7">
-        <v>13581</v>
+        <v>116930</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>48</v>
+        <v>348</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="M26" s="7">
-        <v>48</v>
+        <v>328</v>
       </c>
       <c r="N26" s="7">
-        <v>34556</v>
+        <v>236075</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>141</v>
+        <v>353</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5507,55 +6053,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>234</v>
+      </c>
+      <c r="D27" s="7">
+        <v>173460</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>243</v>
+      </c>
+      <c r="I27" s="7">
+        <v>170789</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>477</v>
+      </c>
+      <c r="N27" s="7">
+        <v>344249</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>29</v>
+      </c>
+      <c r="D28" s="7">
+        <v>20976</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H28" s="7">
+        <v>19</v>
+      </c>
+      <c r="I28" s="7">
+        <v>13581</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="M28" s="7">
+        <v>48</v>
+      </c>
+      <c r="N28" s="7">
+        <v>34556</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>34</v>
+      </c>
+      <c r="D29" s="7">
+        <v>24748</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H29" s="7">
+        <v>38</v>
+      </c>
+      <c r="I29" s="7">
+        <v>26128</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M29" s="7">
+        <v>72</v>
+      </c>
+      <c r="N29" s="7">
+        <v>50876</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>45</v>
+      </c>
+      <c r="D30" s="7">
+        <v>32743</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="H30" s="7">
+        <v>37</v>
+      </c>
+      <c r="I30" s="7">
+        <v>25302</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="M30" s="7">
+        <v>82</v>
+      </c>
+      <c r="N30" s="7">
+        <v>58045</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>58</v>
+      </c>
+      <c r="D31" s="7">
+        <v>41379</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H31" s="7">
+        <v>56</v>
+      </c>
+      <c r="I31" s="7">
+        <v>39889</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="M31" s="7">
+        <v>114</v>
+      </c>
+      <c r="N31" s="7">
+        <v>81267</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>326</v>
+      </c>
+      <c r="D32" s="7">
+        <v>238874</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H32" s="7">
+        <v>359</v>
+      </c>
+      <c r="I32" s="7">
+        <v>251072</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="M32" s="7">
+        <v>685</v>
+      </c>
+      <c r="N32" s="7">
+        <v>489946</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>492</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>358719</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>509</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>355972</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>1001</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>714691</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>62</v>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07A18-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A18-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C9708BC-4CC4-4637-8326-6847791A399E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{213483F9-7AF4-46A0-BE8D-A2BF72FAD2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E6E5C7C9-9D1B-4651-B089-705B0735A07B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F743AB89-943C-4E46-B0F3-65AEE10F32D9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="391">
   <si>
     <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2007 (Tasa respuesta: 47,05%)</t>
   </si>
@@ -97,1126 +97,1120 @@
     <t>4,02%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2012 (Tasa respuesta: 44,74%)</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2016 (Tasa respuesta: 47,08%)</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2012 (Tasa respuesta: 44,74%)</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
   </si>
   <si>
     <t>6,39%</t>
   </si>
   <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2015 (Tasa respuesta: 47,08%)</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
   </si>
   <si>
     <t>9,51%</t>
   </si>
   <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
     <t>66,59%</t>
   </si>
   <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
   </si>
   <si>
     <t>70,53%</t>
   </si>
   <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
   </si>
   <si>
     <t>68,55%</t>
   </si>
   <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
   </si>
 </sst>
 </file>
@@ -1628,7 +1622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5C3764-3C2C-4474-BFFD-CE228DC6A928}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3569FF1C-3B19-4350-A809-458EC8F384B5}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2416,10 +2410,10 @@
         <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -2428,13 +2422,13 @@
         <v>15516</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,13 +2443,13 @@
         <v>22061</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -2464,13 +2458,13 @@
         <v>16974</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M19" s="7">
         <v>59</v>
@@ -2479,13 +2473,13 @@
         <v>39034</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,13 +2494,13 @@
         <v>101633</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H20" s="7">
         <v>128</v>
@@ -2515,13 +2509,13 @@
         <v>86415</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M20" s="7">
         <v>280</v>
@@ -2530,13 +2524,13 @@
         <v>188048</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,13 +2545,13 @@
         <v>140190</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
         <v>188</v>
@@ -2566,13 +2560,13 @@
         <v>125448</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
         <v>398</v>
@@ -2581,18 +2575,18 @@
         <v>265638</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2607,10 +2601,10 @@
         <v>27</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2619,13 +2613,13 @@
         <v>2618</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -2634,13 +2628,13 @@
         <v>9713</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,13 +2649,13 @@
         <v>6796</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -2670,13 +2664,13 @@
         <v>6134</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M23" s="7">
         <v>19</v>
@@ -2685,13 +2679,13 @@
         <v>12930</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,13 +2700,13 @@
         <v>5355</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -2721,13 +2715,13 @@
         <v>7026</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -2736,13 +2730,13 @@
         <v>12381</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,13 +2751,13 @@
         <v>18129</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -2772,13 +2766,13 @@
         <v>26020</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M25" s="7">
         <v>66</v>
@@ -2787,13 +2781,13 @@
         <v>44148</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,13 +2802,13 @@
         <v>166698</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H26" s="7">
         <v>223</v>
@@ -2823,13 +2817,13 @@
         <v>151506</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M26" s="7">
         <v>473</v>
@@ -2838,13 +2832,13 @@
         <v>318204</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,13 +2853,13 @@
         <v>204072</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H27" s="7">
         <v>285</v>
@@ -2874,13 +2868,13 @@
         <v>193304</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M27" s="7">
         <v>592</v>
@@ -2889,13 +2883,13 @@
         <v>397376</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,13 +2906,13 @@
         <v>12734</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H28" s="7">
         <v>13</v>
@@ -2927,13 +2921,13 @@
         <v>8282</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M28" s="7">
         <v>32</v>
@@ -2942,13 +2936,13 @@
         <v>21016</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,13 +2957,13 @@
         <v>11670</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -2978,13 +2972,13 @@
         <v>12996</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M29" s="7">
         <v>37</v>
@@ -2993,13 +2987,13 @@
         <v>24666</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,13 +3008,13 @@
         <v>11337</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H30" s="7">
         <v>25</v>
@@ -3029,13 +3023,13 @@
         <v>16559</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M30" s="7">
         <v>43</v>
@@ -3044,13 +3038,13 @@
         <v>27897</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,13 +3059,13 @@
         <v>40189</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H31" s="7">
         <v>64</v>
@@ -3080,13 +3074,13 @@
         <v>42993</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M31" s="7">
         <v>125</v>
@@ -3095,13 +3089,13 @@
         <v>83183</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,13 +3110,13 @@
         <v>268331</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H32" s="7">
         <v>351</v>
@@ -3131,13 +3125,13 @@
         <v>237921</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M32" s="7">
         <v>753</v>
@@ -3146,13 +3140,13 @@
         <v>506252</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,13 +3161,13 @@
         <v>344262</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H33" s="7">
         <v>473</v>
@@ -3182,13 +3176,13 @@
         <v>318752</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M33" s="7">
         <v>990</v>
@@ -3197,18 +3191,18 @@
         <v>663014</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3228,7 +3222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928BB195-BE0D-4BB8-AA39-43C6F55F8727}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2BD948-86B2-4E17-81B1-826D8D692BBA}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3245,7 +3239,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3896,13 +3890,13 @@
         <v>17742</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -3911,13 +3905,13 @@
         <v>13910</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -3926,13 +3920,13 @@
         <v>31652</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,13 +3941,13 @@
         <v>12883</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -3962,13 +3956,13 @@
         <v>14737</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M17" s="7">
         <v>39</v>
@@ -3977,13 +3971,13 @@
         <v>27620</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,13 +3992,13 @@
         <v>22136</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -4013,13 +4007,13 @@
         <v>14835</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M18" s="7">
         <v>53</v>
@@ -4028,13 +4022,13 @@
         <v>36971</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,13 +4043,13 @@
         <v>21002</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -4064,13 +4058,13 @@
         <v>16714</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
@@ -4079,13 +4073,13 @@
         <v>37716</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,13 +4094,13 @@
         <v>82910</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H20" s="7">
         <v>135</v>
@@ -4115,13 +4109,13 @@
         <v>95318</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M20" s="7">
         <v>254</v>
@@ -4130,13 +4124,13 @@
         <v>178229</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,13 +4145,13 @@
         <v>156674</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
         <v>221</v>
@@ -4166,13 +4160,13 @@
         <v>155514</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
         <v>446</v>
@@ -4181,18 +4175,18 @@
         <v>312189</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4204,13 +4198,13 @@
         <v>7161</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -4219,13 +4213,13 @@
         <v>9179</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>202</v>
+        <v>87</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -4234,13 +4228,13 @@
         <v>16340</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>206</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,13 +4249,13 @@
         <v>17067</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H23" s="7">
         <v>24</v>
@@ -4270,13 +4264,13 @@
         <v>17026</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="M23" s="7">
         <v>51</v>
@@ -4285,13 +4279,13 @@
         <v>34094</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,13 +4300,13 @@
         <v>10497</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>27</v>
+        <v>207</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -4321,13 +4315,13 @@
         <v>11564</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="M24" s="7">
         <v>32</v>
@@ -4336,13 +4330,13 @@
         <v>22061</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>222</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,13 +4351,13 @@
         <v>14888</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -4372,13 +4366,13 @@
         <v>21404</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -4387,13 +4381,13 @@
         <v>36292</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4402,13 @@
         <v>124953</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H26" s="7">
         <v>153</v>
@@ -4423,13 +4417,13 @@
         <v>107231</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="M26" s="7">
         <v>334</v>
@@ -4438,13 +4432,13 @@
         <v>232184</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,13 +4453,13 @@
         <v>174567</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H27" s="7">
         <v>236</v>
@@ -4474,13 +4468,13 @@
         <v>166404</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M27" s="7">
         <v>493</v>
@@ -4489,13 +4483,13 @@
         <v>340971</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,13 +4506,13 @@
         <v>24904</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="H28" s="7">
         <v>33</v>
@@ -4527,13 +4521,13 @@
         <v>23089</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="M28" s="7">
         <v>69</v>
@@ -4542,13 +4536,13 @@
         <v>47992</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +4557,13 @@
         <v>29951</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H29" s="7">
         <v>45</v>
@@ -4578,13 +4572,13 @@
         <v>31763</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="M29" s="7">
         <v>90</v>
@@ -4593,13 +4587,13 @@
         <v>61714</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,13 +4608,13 @@
         <v>32633</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H30" s="7">
         <v>37</v>
@@ -4629,13 +4623,13 @@
         <v>26398</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M30" s="7">
         <v>85</v>
@@ -4644,13 +4638,13 @@
         <v>59032</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,13 +4659,13 @@
         <v>35890</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H31" s="7">
         <v>54</v>
@@ -4680,13 +4674,13 @@
         <v>38118</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>178</v>
+        <v>260</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M31" s="7">
         <v>107</v>
@@ -4695,13 +4689,13 @@
         <v>74009</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>266</v>
+        <v>162</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4716,13 +4710,13 @@
         <v>207863</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H32" s="7">
         <v>288</v>
@@ -4731,13 +4725,13 @@
         <v>202550</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M32" s="7">
         <v>588</v>
@@ -4746,13 +4740,13 @@
         <v>410413</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,13 +4761,13 @@
         <v>331241</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H33" s="7">
         <v>457</v>
@@ -4782,13 +4776,13 @@
         <v>321919</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M33" s="7">
         <v>939</v>
@@ -4797,18 +4791,18 @@
         <v>653160</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4828,7 +4822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F907EFB9-B672-47C7-B65A-50274C5BD4B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F24339-A9E2-4CE1-9AAE-044237615315}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4845,7 +4839,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5496,13 +5490,13 @@
         <v>12251</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -5511,13 +5505,13 @@
         <v>5859</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -5526,13 +5520,13 @@
         <v>18110</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,13 +5541,13 @@
         <v>10579</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -5562,13 +5556,13 @@
         <v>12883</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>291</v>
+        <v>219</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -5577,13 +5571,13 @@
         <v>23462</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>292</v>
+        <v>86</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5598,13 +5592,13 @@
         <v>20522</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>46</v>
+        <v>289</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>295</v>
+        <v>39</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
@@ -5613,13 +5607,13 @@
         <v>13359</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="M18" s="7">
         <v>48</v>
@@ -5628,13 +5622,13 @@
         <v>33880</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,13 +5643,13 @@
         <v>22179</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="H19" s="7">
         <v>27</v>
@@ -5664,13 +5658,13 @@
         <v>18940</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="M19" s="7">
         <v>59</v>
@@ -5679,13 +5673,13 @@
         <v>41120</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,13 +5694,13 @@
         <v>119728</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="H20" s="7">
         <v>192</v>
@@ -5715,13 +5709,13 @@
         <v>134142</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="M20" s="7">
         <v>357</v>
@@ -5730,13 +5724,13 @@
         <v>253870</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,13 +5745,13 @@
         <v>185259</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
         <v>266</v>
@@ -5766,13 +5760,13 @@
         <v>185183</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
         <v>524</v>
@@ -5781,18 +5775,18 @@
         <v>370442</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5804,13 +5798,13 @@
         <v>8725</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>312</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>321</v>
+        <v>43</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -5822,10 +5816,10 @@
         <v>21</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -5834,13 +5828,13 @@
         <v>16447</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>301</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,13 +5849,13 @@
         <v>14169</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -5870,13 +5864,13 @@
         <v>13245</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>330</v>
+        <v>122</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="M23" s="7">
         <v>38</v>
@@ -5885,13 +5879,13 @@
         <v>27415</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>228</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,13 +5900,13 @@
         <v>12221</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -5921,13 +5915,13 @@
         <v>11944</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>336</v>
+        <v>194</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>218</v>
+        <v>328</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="M24" s="7">
         <v>34</v>
@@ -5936,13 +5930,13 @@
         <v>24165</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,13 +5951,13 @@
         <v>19199</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>297</v>
+        <v>237</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -5972,13 +5966,13 @@
         <v>20948</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="M25" s="7">
         <v>55</v>
@@ -5987,13 +5981,13 @@
         <v>40148</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,13 +6002,13 @@
         <v>119145</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H26" s="7">
         <v>167</v>
@@ -6023,13 +6017,13 @@
         <v>116930</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="M26" s="7">
         <v>328</v>
@@ -6038,13 +6032,13 @@
         <v>236075</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,13 +6053,13 @@
         <v>173460</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H27" s="7">
         <v>243</v>
@@ -6074,13 +6068,13 @@
         <v>170789</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M27" s="7">
         <v>477</v>
@@ -6089,13 +6083,13 @@
         <v>344249</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,13 +6106,13 @@
         <v>20976</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H28" s="7">
         <v>19</v>
@@ -6127,13 +6121,13 @@
         <v>13581</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>358</v>
+        <v>42</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="M28" s="7">
         <v>48</v>
@@ -6142,13 +6136,13 @@
         <v>34556</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,13 +6157,13 @@
         <v>24748</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>365</v>
+        <v>125</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>366</v>
+        <v>162</v>
       </c>
       <c r="H29" s="7">
         <v>38</v>
@@ -6178,13 +6172,13 @@
         <v>26128</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>241</v>
+        <v>361</v>
       </c>
       <c r="M29" s="7">
         <v>72</v>
@@ -6193,13 +6187,13 @@
         <v>50876</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>287</v>
+        <v>363</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,13 +6208,13 @@
         <v>32743</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H30" s="7">
         <v>37</v>
@@ -6229,13 +6223,13 @@
         <v>25302</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M30" s="7">
         <v>82</v>
@@ -6244,13 +6238,13 @@
         <v>58045</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,13 +6259,13 @@
         <v>41379</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H31" s="7">
         <v>56</v>
@@ -6280,13 +6274,13 @@
         <v>39889</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>304</v>
+        <v>378</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M31" s="7">
         <v>114</v>
@@ -6295,13 +6289,13 @@
         <v>81267</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>289</v>
+        <v>381</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6316,13 +6310,13 @@
         <v>238874</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H32" s="7">
         <v>359</v>
@@ -6331,13 +6325,13 @@
         <v>251072</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M32" s="7">
         <v>685</v>
@@ -6346,13 +6340,13 @@
         <v>489946</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6367,13 +6361,13 @@
         <v>358719</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H33" s="7">
         <v>509</v>
@@ -6382,13 +6376,13 @@
         <v>355972</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M33" s="7">
         <v>1001</v>
@@ -6397,18 +6391,18 @@
         <v>714691</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A18-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A18-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{213483F9-7AF4-46A0-BE8D-A2BF72FAD2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DB5B45E-B400-4BA0-9112-A04AC3801567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F743AB89-943C-4E46-B0F3-65AEE10F32D9}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{19B26A17-05F8-4DB1-BC07-DE876DAAC6CF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -43,10 +43,10 @@
     <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2007 (Tasa respuesta: 47,05%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -94,1123 +94,1123 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
   </si>
   <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2012 (Tasa respuesta: 44,74%)</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2016 (Tasa respuesta: 47,08%)</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
   </si>
   <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
   </si>
   <si>
     <t>7,05%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
   </si>
   <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
   </si>
   <si>
     <t>8,76%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2012 (Tasa respuesta: 44,74%)</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2016 (Tasa respuesta: 47,08%)</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
+    <t>14,43%</t>
   </si>
   <si>
     <t>11,54%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
   </si>
   <si>
     <t>66,59%</t>
   </si>
   <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
   </si>
   <si>
     <t>68,55%</t>
   </si>
   <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
   </si>
 </sst>
 </file>
@@ -1622,7 +1622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3569FF1C-3B19-4350-A809-458EC8F384B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD87738C-15E1-41DB-BF8B-07B995E2EAA4}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2284,10 +2284,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>5639</v>
+        <v>5664</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2299,10 +2299,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>5664</v>
+        <v>5639</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2335,10 +2335,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D17" s="7">
-        <v>4874</v>
+        <v>6862</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2350,10 +2350,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I17" s="7">
-        <v>6862</v>
+        <v>4874</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2386,10 +2386,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D18" s="7">
-        <v>5982</v>
+        <v>9533</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2401,16 +2401,16 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I18" s="7">
-        <v>9533</v>
+        <v>5982</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>40</v>
@@ -2437,10 +2437,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D19" s="7">
-        <v>22061</v>
+        <v>16974</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>44</v>
@@ -2452,10 +2452,10 @@
         <v>46</v>
       </c>
       <c r="H19" s="7">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I19" s="7">
-        <v>16974</v>
+        <v>22061</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>47</v>
@@ -2488,10 +2488,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="D20" s="7">
-        <v>101633</v>
+        <v>86415</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>53</v>
@@ -2503,10 +2503,10 @@
         <v>55</v>
       </c>
       <c r="H20" s="7">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="I20" s="7">
-        <v>86415</v>
+        <v>101633</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>56</v>
@@ -2539,25 +2539,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>188</v>
+      </c>
+      <c r="D21" s="7">
+        <v>125448</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="7">
         <v>210</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>140190</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="7">
-        <v>188</v>
-      </c>
-      <c r="I21" s="7">
-        <v>125448</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>62</v>
@@ -2592,34 +2592,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
+        <v>2618</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="7">
+        <v>11</v>
+      </c>
+      <c r="I22" s="7">
         <v>7095</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="7">
-        <v>4</v>
-      </c>
-      <c r="I22" s="7">
-        <v>2618</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -2628,13 +2628,13 @@
         <v>9713</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,34 +2643,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>9</v>
+      </c>
+      <c r="D23" s="7">
+        <v>6134</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="7">
         <v>10</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>6796</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H23" s="7">
-        <v>9</v>
-      </c>
-      <c r="I23" s="7">
-        <v>6134</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M23" s="7">
         <v>19</v>
@@ -2679,13 +2679,13 @@
         <v>12930</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,34 +2694,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>11</v>
+      </c>
+      <c r="D24" s="7">
+        <v>7026</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="7">
         <v>8</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>5355</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="J24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="H24" s="7">
-        <v>11</v>
-      </c>
-      <c r="I24" s="7">
-        <v>7026</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -2730,13 +2730,13 @@
         <v>12381</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>85</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,34 +2745,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>38</v>
+      </c>
+      <c r="D25" s="7">
+        <v>26020</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="7">
         <v>28</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>18129</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H25" s="7">
-        <v>38</v>
-      </c>
-      <c r="I25" s="7">
-        <v>26020</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M25" s="7">
         <v>66</v>
@@ -2781,13 +2781,13 @@
         <v>44148</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,34 +2796,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>223</v>
+      </c>
+      <c r="D26" s="7">
+        <v>151506</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" s="7">
         <v>250</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>166698</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H26" s="7">
-        <v>223</v>
-      </c>
-      <c r="I26" s="7">
-        <v>151506</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M26" s="7">
         <v>473</v>
@@ -2832,13 +2832,13 @@
         <v>318204</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,25 +2847,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>285</v>
+      </c>
+      <c r="D27" s="7">
+        <v>193304</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="7">
         <v>307</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>204072</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="7">
-        <v>285</v>
-      </c>
-      <c r="I27" s="7">
-        <v>193304</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>62</v>
@@ -2900,34 +2900,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>13</v>
+      </c>
+      <c r="D28" s="7">
+        <v>8282</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="7">
         <v>19</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>12734</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H28" s="7">
-        <v>13</v>
-      </c>
-      <c r="I28" s="7">
-        <v>8282</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M28" s="7">
         <v>32</v>
@@ -2936,13 +2936,13 @@
         <v>21016</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,34 +2951,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>20</v>
+      </c>
+      <c r="D29" s="7">
+        <v>12996</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29" s="7">
         <v>17</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>11670</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H29" s="7">
-        <v>20</v>
-      </c>
-      <c r="I29" s="7">
-        <v>12996</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M29" s="7">
         <v>37</v>
@@ -2987,13 +2987,13 @@
         <v>24666</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,34 +3002,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>25</v>
+      </c>
+      <c r="D30" s="7">
+        <v>16559</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" s="7">
         <v>18</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>11337</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H30" s="7">
-        <v>25</v>
-      </c>
-      <c r="I30" s="7">
-        <v>16559</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M30" s="7">
         <v>43</v>
@@ -3038,13 +3038,13 @@
         <v>27897</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="Q30" s="7" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,34 +3053,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>64</v>
+      </c>
+      <c r="D31" s="7">
+        <v>42993</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" s="7">
         <v>61</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>40189</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H31" s="7">
-        <v>64</v>
-      </c>
-      <c r="I31" s="7">
-        <v>42993</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M31" s="7">
         <v>125</v>
@@ -3089,13 +3089,13 @@
         <v>83183</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,34 +3104,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>351</v>
+      </c>
+      <c r="D32" s="7">
+        <v>237921</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32" s="7">
         <v>402</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>268331</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H32" s="7">
-        <v>351</v>
-      </c>
-      <c r="I32" s="7">
-        <v>237921</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M32" s="7">
         <v>753</v>
@@ -3140,13 +3140,13 @@
         <v>506252</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,25 +3155,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>473</v>
+      </c>
+      <c r="D33" s="7">
+        <v>318752</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="7">
         <v>517</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>344262</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" s="7">
-        <v>473</v>
-      </c>
-      <c r="I33" s="7">
-        <v>318752</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>62</v>
@@ -3202,7 +3202,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3222,7 +3222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2BD948-86B2-4E17-81B1-826D8D692BBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30297D90-F257-45D3-A8E4-06B8DF830369}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3239,7 +3239,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3884,34 +3884,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>20</v>
+      </c>
+      <c r="D16" s="7">
+        <v>13910</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" s="7">
         <v>25</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>17742</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" s="7">
-        <v>20</v>
-      </c>
-      <c r="I16" s="7">
-        <v>13910</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -3920,13 +3920,13 @@
         <v>31652</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,34 +3935,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>21</v>
+      </c>
+      <c r="D17" s="7">
+        <v>14737</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H17" s="7">
         <v>18</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>12883</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H17" s="7">
-        <v>21</v>
-      </c>
-      <c r="I17" s="7">
-        <v>14737</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M17" s="7">
         <v>39</v>
@@ -3971,13 +3971,13 @@
         <v>27620</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,34 +3986,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>21</v>
+      </c>
+      <c r="D18" s="7">
+        <v>14835</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H18" s="7">
         <v>32</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>22136</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H18" s="7">
-        <v>21</v>
-      </c>
-      <c r="I18" s="7">
-        <v>14835</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M18" s="7">
         <v>53</v>
@@ -4022,13 +4022,13 @@
         <v>36971</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,34 +4037,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>24</v>
+      </c>
+      <c r="D19" s="7">
+        <v>16714</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H19" s="7">
         <v>31</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>21002</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H19" s="7">
-        <v>24</v>
-      </c>
-      <c r="I19" s="7">
-        <v>16714</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
@@ -4073,13 +4073,13 @@
         <v>37716</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,34 +4088,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>135</v>
+      </c>
+      <c r="D20" s="7">
+        <v>95318</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H20" s="7">
         <v>119</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>82910</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H20" s="7">
-        <v>135</v>
-      </c>
-      <c r="I20" s="7">
-        <v>95318</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M20" s="7">
         <v>254</v>
@@ -4124,13 +4124,13 @@
         <v>178229</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,25 +4139,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>221</v>
+      </c>
+      <c r="D21" s="7">
+        <v>155514</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="7">
         <v>225</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>156674</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="7">
-        <v>221</v>
-      </c>
-      <c r="I21" s="7">
-        <v>155514</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>62</v>
@@ -4192,34 +4192,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D22" s="7">
+        <v>9179</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H22" s="7">
+        <v>11</v>
+      </c>
+      <c r="I22" s="7">
         <v>7161</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H22" s="7">
-        <v>13</v>
-      </c>
-      <c r="I22" s="7">
-        <v>9179</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -4228,13 +4228,13 @@
         <v>16340</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,34 +4243,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>24</v>
+      </c>
+      <c r="D23" s="7">
+        <v>17026</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H23" s="7">
         <v>27</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>17067</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H23" s="7">
-        <v>24</v>
-      </c>
-      <c r="I23" s="7">
-        <v>17026</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M23" s="7">
         <v>51</v>
@@ -4279,13 +4279,13 @@
         <v>34094</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,31 +4297,31 @@
         <v>16</v>
       </c>
       <c r="D24" s="7">
-        <v>10497</v>
+        <v>11564</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
       </c>
       <c r="I24" s="7">
-        <v>11564</v>
+        <v>10497</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="M24" s="7">
         <v>32</v>
@@ -4330,13 +4330,13 @@
         <v>22061</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>89</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,34 +4345,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>30</v>
+      </c>
+      <c r="D25" s="7">
+        <v>21404</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H25" s="7">
         <v>22</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>14888</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H25" s="7">
-        <v>30</v>
-      </c>
-      <c r="I25" s="7">
-        <v>21404</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -4381,13 +4381,13 @@
         <v>36292</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,34 +4396,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>153</v>
+      </c>
+      <c r="D26" s="7">
+        <v>107231</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H26" s="7">
         <v>181</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>124953</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H26" s="7">
-        <v>153</v>
-      </c>
-      <c r="I26" s="7">
-        <v>107231</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="M26" s="7">
         <v>334</v>
@@ -4432,13 +4432,13 @@
         <v>232184</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,25 +4447,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>236</v>
+      </c>
+      <c r="D27" s="7">
+        <v>166404</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="7">
         <v>257</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>174567</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="7">
-        <v>236</v>
-      </c>
-      <c r="I27" s="7">
-        <v>166404</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>62</v>
@@ -4500,34 +4500,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>33</v>
+      </c>
+      <c r="D28" s="7">
+        <v>23089</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H28" s="7">
         <v>36</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>24904</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H28" s="7">
-        <v>33</v>
-      </c>
-      <c r="I28" s="7">
-        <v>23089</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="M28" s="7">
         <v>69</v>
@@ -4536,13 +4536,13 @@
         <v>47992</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,31 +4554,31 @@
         <v>45</v>
       </c>
       <c r="D29" s="7">
-        <v>29951</v>
+        <v>31763</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="H29" s="7">
         <v>45</v>
       </c>
       <c r="I29" s="7">
-        <v>31763</v>
+        <v>29951</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="M29" s="7">
         <v>90</v>
@@ -4587,13 +4587,13 @@
         <v>61714</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,34 +4602,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>37</v>
+      </c>
+      <c r="D30" s="7">
+        <v>26398</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H30" s="7">
         <v>48</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>32633</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H30" s="7">
-        <v>37</v>
-      </c>
-      <c r="I30" s="7">
-        <v>26398</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="M30" s="7">
         <v>85</v>
@@ -4638,13 +4638,13 @@
         <v>59032</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,34 +4653,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>54</v>
+      </c>
+      <c r="D31" s="7">
+        <v>38118</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H31" s="7">
         <v>53</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>35890</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="H31" s="7">
-        <v>54</v>
-      </c>
-      <c r="I31" s="7">
-        <v>38118</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>172</v>
+        <v>264</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="M31" s="7">
         <v>107</v>
@@ -4689,13 +4689,13 @@
         <v>74009</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>162</v>
+        <v>268</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,34 +4704,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>288</v>
+      </c>
+      <c r="D32" s="7">
+        <v>202550</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H32" s="7">
         <v>300</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>207863</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H32" s="7">
-        <v>288</v>
-      </c>
-      <c r="I32" s="7">
-        <v>202550</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="M32" s="7">
         <v>588</v>
@@ -4740,13 +4740,13 @@
         <v>410413</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,25 +4755,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>457</v>
+      </c>
+      <c r="D33" s="7">
+        <v>321919</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="7">
         <v>482</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>331241</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" s="7">
-        <v>457</v>
-      </c>
-      <c r="I33" s="7">
-        <v>321919</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>62</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4822,7 +4822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F24339-A9E2-4CE1-9AAE-044237615315}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039CE920-156D-43A3-AD48-F839AAEC1537}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4839,7 +4839,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5484,34 +5484,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5859</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="7">
         <v>18</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>12251</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H16" s="7">
-        <v>8</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5859</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -5520,13 +5520,13 @@
         <v>18110</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>281</v>
+        <v>125</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,34 +5535,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>19</v>
+      </c>
+      <c r="D17" s="7">
+        <v>12883</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H17" s="7">
         <v>15</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>10579</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="H17" s="7">
-        <v>19</v>
-      </c>
-      <c r="I17" s="7">
-        <v>12883</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>33</v>
+        <v>289</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>219</v>
+        <v>290</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -5571,13 +5571,13 @@
         <v>23462</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>86</v>
+        <v>291</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,34 +5586,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>20</v>
+      </c>
+      <c r="D18" s="7">
+        <v>13359</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H18" s="7">
         <v>28</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>20522</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H18" s="7">
-        <v>20</v>
-      </c>
-      <c r="I18" s="7">
-        <v>13359</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="M18" s="7">
         <v>48</v>
@@ -5622,13 +5622,13 @@
         <v>33880</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,34 +5637,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>27</v>
+      </c>
+      <c r="D19" s="7">
+        <v>18940</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H19" s="7">
         <v>32</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>22179</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H19" s="7">
-        <v>27</v>
-      </c>
-      <c r="I19" s="7">
-        <v>18940</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>202</v>
+        <v>303</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="M19" s="7">
         <v>59</v>
@@ -5673,13 +5673,13 @@
         <v>41120</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>301</v>
+        <v>223</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,34 +5688,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>192</v>
+      </c>
+      <c r="D20" s="7">
+        <v>134142</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H20" s="7">
         <v>165</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>119728</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="H20" s="7">
-        <v>192</v>
-      </c>
-      <c r="I20" s="7">
-        <v>134142</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="M20" s="7">
         <v>357</v>
@@ -5724,13 +5724,13 @@
         <v>253870</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,25 +5739,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>266</v>
+      </c>
+      <c r="D21" s="7">
+        <v>185183</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="7">
         <v>258</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>185259</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="7">
-        <v>266</v>
-      </c>
-      <c r="I21" s="7">
-        <v>185183</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>62</v>
@@ -5795,31 +5795,31 @@
         <v>11</v>
       </c>
       <c r="D22" s="7">
+        <v>7721</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H22" s="7">
+        <v>11</v>
+      </c>
+      <c r="I22" s="7">
         <v>8725</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="7">
-        <v>11</v>
-      </c>
-      <c r="I22" s="7">
-        <v>7721</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>21</v>
+        <v>319</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>315</v>
+        <v>94</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -5828,13 +5828,13 @@
         <v>16447</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>35</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,31 +5846,31 @@
         <v>19</v>
       </c>
       <c r="D23" s="7">
-        <v>14169</v>
+        <v>13245</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
       </c>
       <c r="I23" s="7">
-        <v>13245</v>
+        <v>14169</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>122</v>
+        <v>328</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="M23" s="7">
         <v>38</v>
@@ -5879,13 +5879,13 @@
         <v>27415</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5897,31 +5897,31 @@
         <v>17</v>
       </c>
       <c r="D24" s="7">
-        <v>12221</v>
+        <v>11944</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>35</v>
+        <v>284</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>326</v>
+        <v>33</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
       </c>
       <c r="I24" s="7">
-        <v>11944</v>
+        <v>12221</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>194</v>
+        <v>333</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>328</v>
+        <v>128</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="M24" s="7">
         <v>34</v>
@@ -5930,13 +5930,13 @@
         <v>24165</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,34 +5945,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>29</v>
+      </c>
+      <c r="D25" s="7">
+        <v>20948</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H25" s="7">
         <v>26</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>19199</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="H25" s="7">
-        <v>29</v>
-      </c>
-      <c r="I25" s="7">
-        <v>20948</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="M25" s="7">
         <v>55</v>
@@ -5981,13 +5981,13 @@
         <v>40148</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5996,34 +5996,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>167</v>
+      </c>
+      <c r="D26" s="7">
+        <v>116930</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H26" s="7">
         <v>161</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>119145</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="H26" s="7">
-        <v>167</v>
-      </c>
-      <c r="I26" s="7">
-        <v>116930</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="M26" s="7">
         <v>328</v>
@@ -6032,13 +6032,13 @@
         <v>236075</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,25 +6047,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>243</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170789</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="7">
         <v>234</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>173460</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="7">
-        <v>243</v>
-      </c>
-      <c r="I27" s="7">
-        <v>170789</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>62</v>
@@ -6100,34 +6100,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>19</v>
+      </c>
+      <c r="D28" s="7">
+        <v>13581</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H28" s="7">
         <v>29</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>20976</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="H28" s="7">
-        <v>19</v>
-      </c>
-      <c r="I28" s="7">
-        <v>13581</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="M28" s="7">
         <v>48</v>
@@ -6136,13 +6136,13 @@
         <v>34556</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>356</v>
+        <v>119</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6151,34 +6151,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>38</v>
+      </c>
+      <c r="D29" s="7">
+        <v>26128</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H29" s="7">
         <v>34</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>24748</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H29" s="7">
-        <v>38</v>
-      </c>
-      <c r="I29" s="7">
-        <v>26128</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="M29" s="7">
         <v>72</v>
@@ -6187,13 +6187,13 @@
         <v>50876</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>363</v>
+        <v>72</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>364</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,34 +6202,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>37</v>
+      </c>
+      <c r="D30" s="7">
+        <v>25302</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H30" s="7">
         <v>45</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>32743</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="H30" s="7">
-        <v>37</v>
-      </c>
-      <c r="I30" s="7">
-        <v>25302</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M30" s="7">
         <v>82</v>
@@ -6238,13 +6238,13 @@
         <v>58045</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,34 +6253,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>56</v>
+      </c>
+      <c r="D31" s="7">
+        <v>39889</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H31" s="7">
         <v>58</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>41379</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="H31" s="7">
-        <v>56</v>
-      </c>
-      <c r="I31" s="7">
-        <v>39889</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>378</v>
+        <v>45</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M31" s="7">
         <v>114</v>
@@ -6289,13 +6289,13 @@
         <v>81267</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>380</v>
+        <v>261</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>381</v>
+        <v>160</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>155</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6304,10 +6304,10 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="D32" s="7">
-        <v>238874</v>
+        <v>251072</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>382</v>
@@ -6319,10 +6319,10 @@
         <v>384</v>
       </c>
       <c r="H32" s="7">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="I32" s="7">
-        <v>251072</v>
+        <v>238874</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>385</v>
@@ -6355,25 +6355,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>509</v>
+      </c>
+      <c r="D33" s="7">
+        <v>355972</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="7">
         <v>492</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>358719</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" s="7">
-        <v>509</v>
-      </c>
-      <c r="I33" s="7">
-        <v>355972</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>62</v>
@@ -6402,7 +6402,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
